--- a/2021-04-30/web_tables/forecast_cpi_wide.xlsx
+++ b/2021-04-30/web_tables/forecast_cpi_wide.xlsx
@@ -387,115 +387,115 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>май 2021</t>
+          <t>апрель 2021</t>
         </is>
       </c>
       <c r="B2">
-        <v>100.45</v>
+        <v>100.67</v>
       </c>
       <c r="C2">
-        <v>100.47</v>
+        <v>100.58</v>
       </c>
       <c r="D2">
-        <v>100.55</v>
+        <v>100.61</v>
       </c>
       <c r="E2">
-        <v>100.25</v>
+        <v>100.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>июнь 2021</t>
+          <t>май 2021</t>
         </is>
       </c>
       <c r="B3">
-        <v>100.36</v>
+        <v>100.57</v>
       </c>
       <c r="C3">
-        <v>100.41</v>
+        <v>100.47</v>
       </c>
       <c r="D3">
-        <v>100.49</v>
+        <v>100.58</v>
       </c>
       <c r="E3">
-        <v>100.43</v>
+        <v>100.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>июль 2021</t>
+          <t>июнь 2021</t>
         </is>
       </c>
       <c r="B4">
-        <v>100.43</v>
+        <v>100.47</v>
       </c>
       <c r="C4">
-        <v>100.44</v>
+        <v>100.41</v>
       </c>
       <c r="D4">
-        <v>100.59</v>
+        <v>100.56</v>
       </c>
       <c r="E4">
-        <v>100.33</v>
+        <v>100.46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>август 2021</t>
+          <t>июль 2021</t>
         </is>
       </c>
       <c r="B5">
-        <v>100.22</v>
+        <v>100.54</v>
       </c>
       <c r="C5">
-        <v>100.11</v>
+        <v>100.44</v>
       </c>
       <c r="D5">
-        <v>100.11</v>
+        <v>100.65</v>
       </c>
       <c r="E5">
-        <v>99.93000000000001</v>
+        <v>100.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>сентябрь 2021</t>
+          <t>август 2021</t>
         </is>
       </c>
       <c r="B6">
-        <v>100.24</v>
+        <v>100.33</v>
       </c>
       <c r="C6">
-        <v>100.21</v>
+        <v>100.11</v>
       </c>
       <c r="D6">
-        <v>100.3</v>
+        <v>100.11</v>
       </c>
       <c r="E6">
-        <v>100.03</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>октябрь 2021</t>
+          <t>сентябрь 2021</t>
         </is>
       </c>
       <c r="B7">
-        <v>100.43</v>
+        <v>100.35</v>
       </c>
       <c r="C7">
-        <v>100.42</v>
+        <v>100.21</v>
       </c>
       <c r="D7">
-        <v>100.52</v>
+        <v>100.31</v>
       </c>
       <c r="E7">
-        <v>100.37</v>
+        <v>100.03</v>
       </c>
     </row>
   </sheetData>
